--- a/biology/Botanique/Croton_bogotanus/Croton_bogotanus.xlsx
+++ b/biology/Botanique/Croton_bogotanus/Croton_bogotanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton bogotanus est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae, présente en Colombie.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre qui peut atteindre 8 m de hauteur, pour un tronc de 20 cm de diamètre[1].
-Appareil reproducteur
-Les fruits sont des capsules à 3 valves, de 1 cm de diamètre[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 8 m de hauteur, pour un tronc de 20 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules à 3 valves, de 1 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croton_bogotanus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_bogotanus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition est restreinte, puisqu'il ne pousse que dans la Cordillère orientale en Colombie, entre 1800 et 2800 m d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition est restreinte, puisqu'il ne pousse que dans la Cordillère orientale en Colombie, entre 1800 et 2800 m d'altitude.
 </t>
         </is>
       </c>
